--- a/data/DirectoryClassRecords.xlsx
+++ b/data/DirectoryClassRecords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="398">
   <si>
     <t>AH004</t>
   </si>
@@ -326,9 +326,6 @@
     <t>LB334</t>
   </si>
   <si>
-    <t>LBBasement</t>
-  </si>
-  <si>
     <t>LT006</t>
   </si>
   <si>
@@ -570,12 +567,6 @@
   </si>
   <si>
     <t>../data/images/LB334.jpg</t>
-  </si>
-  <si>
-    <t>../data/software/LBBasement.txt</t>
-  </si>
-  <si>
-    <t>../data/images/LBBasement.jpg</t>
   </si>
   <si>
     <t>../data/software/DN100.txt</t>
@@ -1585,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,40 +1599,40 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -1650,17 +1641,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -1669,17 +1660,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1688,17 +1679,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -1707,17 +1698,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -1726,17 +1717,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1745,7 +1736,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>86</v>
@@ -1754,13 +1745,13 @@
         <v>6251</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -1769,7 +1760,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>87</v>
@@ -1778,13 +1769,13 @@
         <v>6252</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -1792,7 +1783,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>88</v>
@@ -1801,13 +1792,13 @@
         <v>6253</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -1815,7 +1806,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>89</v>
@@ -1824,13 +1815,13 @@
         <v>3042</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -1839,17 +1830,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -1858,17 +1849,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1877,17 +1868,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -1896,17 +1887,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -1915,19 +1906,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -1935,17 +1926,17 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -1953,17 +1944,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -1971,17 +1962,17 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -1990,17 +1981,17 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -2008,7 +1999,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>99</v>
@@ -2018,10 +2009,10 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -2029,40 +2020,45 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6051</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
+      <c r="G22" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>6051</v>
+        <v>6053</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="G23" s="6">
         <v>2</v>
@@ -2070,22 +2066,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="3">
-        <v>6053</v>
+        <v>6222</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G24" s="6">
         <v>2</v>
@@ -2093,22 +2089,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3">
-        <v>6222</v>
+        <v>6223</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="G25" s="6">
         <v>2</v>
@@ -2116,22 +2112,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3">
-        <v>6223</v>
+        <v>6225</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="G26" s="6">
         <v>2</v>
@@ -2139,22 +2135,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3">
-        <v>6225</v>
+        <v>6263</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G27" s="6">
         <v>2</v>
@@ -2162,22 +2158,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3">
-        <v>6263</v>
+        <v>6264</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G28" s="6">
         <v>2</v>
@@ -2185,22 +2181,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
-        <v>6264</v>
+        <v>6054</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="G29" s="6">
         <v>2</v>
@@ -2208,22 +2204,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3">
-        <v>6054</v>
+        <v>6055</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="G30" s="6">
         <v>2</v>
@@ -2231,22 +2227,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3">
-        <v>6055</v>
+        <v>6263</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="G31" s="6">
         <v>2</v>
@@ -2254,22 +2250,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6263</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="G32" s="6">
         <v>2</v>
@@ -2277,19 +2270,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6343</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="G33" s="6">
         <v>2</v>
@@ -2297,22 +2293,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3">
-        <v>6343</v>
+        <v>6277</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="G34" s="6">
         <v>2</v>
@@ -2320,22 +2316,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3">
-        <v>6277</v>
+        <v>3024</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="G35" s="6">
         <v>2</v>
@@ -2343,22 +2339,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3">
         <v>3024</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="G36" s="6">
         <v>2</v>
@@ -2366,22 +2362,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3">
         <v>3024</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="G37" s="6">
         <v>2</v>
@@ -2392,19 +2388,19 @@
         <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
-        <v>3024</v>
+        <v>4540</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="G38" s="6">
         <v>2</v>
@@ -2412,22 +2408,20 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
-        <v>4540</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>6420</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="G39" s="6">
         <v>2</v>
@@ -2435,20 +2429,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6420</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="G40" s="6">
         <v>2</v>
@@ -2456,17 +2447,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7552</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="G41" s="6">
         <v>2</v>
@@ -2474,22 +2470,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3">
         <v>7552</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="G42" s="6">
         <v>2</v>
@@ -2497,45 +2493,45 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3">
-        <v>7552</v>
+        <v>6241</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G43" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3">
-        <v>6241</v>
+        <v>6243</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="G44" s="6">
         <v>3</v>
@@ -2543,22 +2539,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
-        <v>6243</v>
+        <v>6244</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="G45" s="6">
         <v>3</v>
@@ -2566,22 +2562,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3">
-        <v>6244</v>
+        <v>6092</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="G46" s="6">
         <v>3</v>
@@ -2589,22 +2585,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C47" s="3">
-        <v>6092</v>
+        <v>6279</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="G47" s="6">
         <v>3</v>
@@ -2612,22 +2608,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="3">
-        <v>6279</v>
+        <v>6083</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="G48" s="6">
         <v>3</v>
@@ -2635,22 +2631,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="3">
-        <v>6083</v>
+        <v>6403</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="G49" s="6">
         <v>3</v>
@@ -2658,22 +2654,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3">
-        <v>6403</v>
+        <v>6404</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="G50" s="6">
         <v>3</v>
@@ -2681,22 +2677,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3">
-        <v>6404</v>
+        <v>6084</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="G51" s="6">
         <v>3</v>
@@ -2704,22 +2700,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3">
-        <v>6084</v>
+        <v>6093</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="G52" s="6">
         <v>3</v>
@@ -2727,22 +2723,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" s="3">
-        <v>6093</v>
+        <v>6280</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="G53" s="6">
         <v>3</v>
@@ -2750,22 +2746,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3">
-        <v>6280</v>
+        <v>6094</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="G54" s="6">
         <v>3</v>
@@ -2773,22 +2769,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
-        <v>6094</v>
+        <v>6245</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="G55" s="6">
         <v>3</v>
@@ -2796,22 +2792,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3">
-        <v>6245</v>
+        <v>6057</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G56" s="6">
         <v>3</v>
@@ -2819,22 +2815,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="3">
-        <v>6057</v>
+        <v>6246</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="G57" s="6">
         <v>3</v>
@@ -2842,22 +2838,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3">
-        <v>6246</v>
+        <v>6248</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="G58" s="6">
         <v>3</v>
@@ -2868,19 +2864,19 @@
         <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C59" s="3">
-        <v>6248</v>
+        <v>6278</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="G59" s="6">
         <v>3</v>
@@ -2888,22 +2884,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6278</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="G60" s="6">
         <v>3</v>
@@ -2911,19 +2904,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6247</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="G61" s="6">
         <v>3</v>
@@ -2931,22 +2927,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="3">
-        <v>6247</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="G62" s="6">
         <v>3</v>
@@ -2954,101 +2947,108 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>139</v>
+        <v>397</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="G63" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E64" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G64" s="6">
+      <c r="G64" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4293</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E65" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="G65" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3">
-        <v>4293</v>
+        <v>6259</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3">
-        <v>6259</v>
+        <v>6260</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G67" s="6">
         <v>5</v>
@@ -3056,22 +3056,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3">
-        <v>6260</v>
+        <v>6261</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="G68" s="6">
         <v>5</v>
@@ -3079,22 +3079,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3">
-        <v>6261</v>
+        <v>6239</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="G69" s="6">
         <v>5</v>
@@ -3102,22 +3102,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="3">
-        <v>6239</v>
+        <v>69</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="G70" s="6">
         <v>5</v>
@@ -3125,42 +3122,45 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2521</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="G71" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="3">
-        <v>2521</v>
+        <v>2276</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="G72" s="6">
         <v>6</v>
@@ -3168,22 +3168,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="3">
-        <v>2276</v>
+        <v>2524</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="G73" s="6">
         <v>6</v>
@@ -3191,22 +3191,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="3">
-        <v>2524</v>
+        <v>2606</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="G74" s="6">
         <v>6</v>
@@ -3214,22 +3214,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3">
-        <v>2606</v>
+        <v>2997</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="G75" s="6">
         <v>6</v>
@@ -3237,22 +3237,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="3">
-        <v>2997</v>
+        <v>7739</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="G76" s="6">
         <v>6</v>
@@ -3263,19 +3263,19 @@
         <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C77" s="3">
-        <v>7739</v>
+        <v>7234</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="G77" s="6">
         <v>6</v>
@@ -3283,22 +3283,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3">
-        <v>7234</v>
+        <v>7451</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="G78" s="6">
         <v>6</v>
@@ -3306,22 +3306,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" s="3">
-        <v>7451</v>
+        <v>2904</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="G79" s="6">
         <v>6</v>
@@ -3329,22 +3329,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" s="3">
-        <v>2904</v>
+        <v>2998</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="G80" s="6">
         <v>6</v>
@@ -3352,45 +3352,45 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C81" s="3">
-        <v>2998</v>
+        <v>6334</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="G81" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C82" s="3">
-        <v>6334</v>
+        <v>6081</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="G82" s="6">
         <v>7</v>
@@ -3398,22 +3398,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C83" s="3">
-        <v>6081</v>
+        <v>6335</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="G83" s="6">
         <v>7</v>
@@ -3421,22 +3421,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C84" s="3">
-        <v>6335</v>
+        <v>2323</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="G84" s="6">
         <v>7</v>
@@ -3444,22 +3444,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C85" s="3">
-        <v>2323</v>
+        <v>6233</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="G85" s="6">
         <v>7</v>
@@ -3467,22 +3467,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C86" s="3">
-        <v>6233</v>
+        <v>6232</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="G86" s="6">
         <v>7</v>
@@ -3490,22 +3490,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C87" s="3">
-        <v>6232</v>
+        <v>6402</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="G87" s="6">
         <v>7</v>
@@ -3513,22 +3513,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="3">
-        <v>6402</v>
+        <v>6235</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="G88" s="6">
         <v>7</v>
@@ -3536,22 +3536,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C89" s="3">
-        <v>6235</v>
+        <v>6234</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="G89" s="6">
         <v>7</v>
@@ -3559,22 +3559,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C90" s="3">
-        <v>6234</v>
+        <v>6401</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="G90" s="6">
         <v>7</v>
@@ -3582,22 +3582,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C91" s="3">
-        <v>6401</v>
+        <v>6101</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="G91" s="6">
         <v>7</v>
@@ -3605,22 +3605,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C92" s="3">
-        <v>6101</v>
+        <v>6240</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E92" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G92" s="6">
         <v>7</v>
@@ -3628,22 +3628,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="3">
-        <v>6240</v>
+        <v>6111</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E93" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="G93" s="6">
         <v>7</v>
@@ -3654,19 +3654,19 @@
         <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C94" s="3">
-        <v>6111</v>
+        <v>6091</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E94" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G94" s="6">
         <v>7</v>
@@ -3674,22 +3674,17 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="3">
-        <v>6091</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="G95" s="6">
         <v>7</v>
@@ -3697,17 +3692,17 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="G96" s="6">
         <v>7</v>
@@ -3715,17 +3710,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6238</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E97" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="G97" s="6">
         <v>7</v>
@@ -3733,22 +3733,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C98" s="3">
-        <v>6238</v>
+        <v>6078</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E98" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="G98" s="6">
         <v>7</v>
@@ -3756,22 +3756,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C99" s="3">
-        <v>6078</v>
+        <v>6144</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E99" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="G99" s="6">
         <v>7</v>
@@ -3779,22 +3779,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C100" s="3">
-        <v>6144</v>
+        <v>6101</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E100" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="G100" s="6">
         <v>7</v>
@@ -3802,25 +3802,25 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C101" s="3">
-        <v>6101</v>
+        <v>6272</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="G101" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3830,12 +3830,15 @@
       <c r="B102" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C102" s="3">
+        <v>2325</v>
+      </c>
       <c r="D102" s="1"/>
       <c r="E102" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="G102" s="6">
         <v>8</v>
@@ -3843,84 +3846,87 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C103" s="3">
+        <v>6310</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E103" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="G103" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" s="3">
-        <v>6310</v>
+        <v>6312</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="G104" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" s="3">
-        <v>6312</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>6313</v>
+      </c>
+      <c r="D105" s="1"/>
       <c r="E105" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="G105" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="3">
-        <v>6313</v>
+        <v>6315</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="G106" s="6">
         <v>9</v>
@@ -3928,20 +3934,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107" s="3">
-        <v>6315</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>6317</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E107" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="G107" s="6">
         <v>9</v>
@@ -3949,22 +3957,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" s="3">
-        <v>6317</v>
+        <v>6321</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="G108" s="6">
         <v>9</v>
@@ -3972,22 +3980,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C109" s="3">
-        <v>6321</v>
+        <v>6325</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E109" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G109" s="6">
         <v>9</v>
@@ -3995,22 +4003,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C110" s="3">
-        <v>6325</v>
+        <v>6327</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E110" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="G110" s="6">
         <v>9</v>
@@ -4018,22 +4026,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C111" s="3">
-        <v>6327</v>
+        <v>6331</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E111" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="G111" s="6">
         <v>9</v>
@@ -4041,22 +4049,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" s="3">
-        <v>6331</v>
+        <v>6333</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E112" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="G112" s="6">
         <v>9</v>
@@ -4064,22 +4072,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="3">
-        <v>6333</v>
+        <v>15</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="G113" s="6">
         <v>9</v>
@@ -4087,19 +4092,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C114" s="3">
+        <v>6340</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E114" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F114" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="G114" s="6">
         <v>9</v>
@@ -4107,22 +4115,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C115" s="3">
-        <v>6340</v>
+        <v>6341</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E115" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F115" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="G115" s="6">
         <v>9</v>
@@ -4130,22 +4138,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116" s="3">
-        <v>6341</v>
+        <v>6346</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="G116" s="6">
         <v>9</v>
@@ -4156,19 +4164,19 @@
         <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C117" s="3">
-        <v>6346</v>
+        <v>6311</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="G117" s="6">
         <v>9</v>
@@ -4176,22 +4184,20 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C118" s="3">
-        <v>6311</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>6322</v>
+      </c>
+      <c r="D118" s="1"/>
       <c r="E118" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="G118" s="6">
         <v>9</v>
@@ -4199,20 +4205,20 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
-        <v>6322</v>
+        <v>6323</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="G119" s="6">
         <v>9</v>
@@ -4220,20 +4226,20 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" s="3">
-        <v>6323</v>
+        <v>6324</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="G120" s="6">
         <v>9</v>
@@ -4241,20 +4247,20 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121" s="3">
-        <v>6324</v>
+        <v>6326</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="G121" s="6">
         <v>9</v>
@@ -4262,20 +4268,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C122" s="3">
-        <v>6326</v>
-      </c>
-      <c r="D122" s="1"/>
+        <v>6348</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E122" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="G122" s="6">
         <v>9</v>
@@ -4283,22 +4291,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C123" s="3">
-        <v>6348</v>
+        <v>6349</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E123" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="G123" s="6">
         <v>9</v>
@@ -4306,40 +4314,45 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C124" s="3">
-        <v>6349</v>
+        <v>6431</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="G124" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="C125" s="3">
+        <v>6268</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E125" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="G125" s="6">
         <v>11</v>
@@ -4347,17 +4360,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="C126" s="3">
+        <v>6267</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E126" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F126" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="G126" s="6">
         <v>11</v>
@@ -4368,14 +4386,14 @@
         <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="G127" s="6">
         <v>11</v>
@@ -4383,55 +4401,37 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="G128" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="G129" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G130" s="6">
         <v>13</v>
       </c>
     </row>
